--- a/Input files/proficiency_pivot.xlsx
+++ b/Input files/proficiency_pivot.xlsx
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38.9</v>
+        <v>0.389</v>
       </c>
       <c r="D2" t="n">
-        <v>8.6</v>
+        <v>0.08558558558558559</v>
       </c>
     </row>
     <row r="3">
@@ -485,10 +485,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58.3</v>
+        <v>0.583</v>
       </c>
       <c r="D3" t="n">
-        <v>21.6</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="4">
@@ -503,10 +503,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="D4" t="n">
-        <v>25.2</v>
+        <v>0.2522522522522522</v>
       </c>
     </row>
     <row r="5">
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39.6</v>
+        <v>0.396</v>
       </c>
       <c r="D6" t="n">
-        <v>27</v>
+        <v>0.2702702702702703</v>
       </c>
     </row>
     <row r="7">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>41.4</v>
+        <v>0.414</v>
       </c>
       <c r="D7" t="n">
-        <v>29.7</v>
+        <v>0.2972972972972973</v>
       </c>
     </row>
     <row r="8">
@@ -575,10 +575,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>46.3</v>
+        <v>0.463</v>
       </c>
       <c r="D8" t="n">
-        <v>30.2</v>
+        <v>0.3018018018018018</v>
       </c>
     </row>
     <row r="9">
@@ -593,10 +593,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>41.5</v>
+        <v>0.415</v>
       </c>
       <c r="D9" t="n">
-        <v>35.1</v>
+        <v>0.3513513513513514</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="D10" t="n">
-        <v>37.8</v>
+        <v>0.3783783783783784</v>
       </c>
     </row>
     <row r="11">
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.9</v>
+        <v>0.529</v>
       </c>
       <c r="D11" t="n">
-        <v>45.9</v>
+        <v>0.4594594594594595</v>
       </c>
     </row>
     <row r="12">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>45.3</v>
+        <v>0.453</v>
       </c>
       <c r="D12" t="n">
-        <v>50.5</v>
+        <v>0.5045045045045045</v>
       </c>
     </row>
     <row r="13">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>17.9</v>
+        <v>0.179</v>
       </c>
       <c r="D13" t="n">
-        <v>13.7</v>
+        <v>0.1373390557939914</v>
       </c>
     </row>
     <row r="14">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>44.1</v>
+        <v>0.441</v>
       </c>
       <c r="D14" t="n">
-        <v>17.2</v>
+        <v>0.1716738197424893</v>
       </c>
     </row>
     <row r="15">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>41.5</v>
+        <v>0.415</v>
       </c>
       <c r="D15" t="n">
-        <v>23.2</v>
+        <v>0.2317596566523605</v>
       </c>
     </row>
     <row r="16">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>37.5</v>
+        <v>0.375</v>
       </c>
       <c r="D16" t="n">
-        <v>23.6</v>
+        <v>0.2360515021459227</v>
       </c>
     </row>
     <row r="17">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.4</v>
+        <v>0.364</v>
       </c>
       <c r="D17" t="n">
-        <v>24.9</v>
+        <v>0.2489270386266094</v>
       </c>
     </row>
     <row r="18">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="D18" t="n">
-        <v>27.9</v>
+        <v>0.278969957081545</v>
       </c>
     </row>
     <row r="19">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27.1</v>
+        <v>0.271</v>
       </c>
       <c r="D19" t="n">
-        <v>28.8</v>
+        <v>0.2875536480686695</v>
       </c>
     </row>
     <row r="20">
@@ -791,10 +791,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46</v>
+        <v>0.46</v>
       </c>
       <c r="D20" t="n">
-        <v>30.5</v>
+        <v>0.3047210300429185</v>
       </c>
     </row>
     <row r="21">
@@ -809,10 +809,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>37.1</v>
+        <v>0.371</v>
       </c>
       <c r="D21" t="n">
-        <v>37.3</v>
+        <v>0.3733905579399142</v>
       </c>
     </row>
     <row r="22">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>48.4</v>
+        <v>0.484</v>
       </c>
       <c r="D22" t="n">
-        <v>50.6</v>
+        <v>0.5064377682403434</v>
       </c>
     </row>
     <row r="23">
@@ -845,10 +845,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52.5</v>
+        <v>0.525</v>
       </c>
       <c r="D23" t="n">
-        <v>51.1</v>
+        <v>0.5107296137339056</v>
       </c>
     </row>
     <row r="24">
@@ -863,10 +863,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>13.3</v>
+        <v>0.133</v>
       </c>
       <c r="D24" t="n">
-        <v>10.9</v>
+        <v>0.1085714285714286</v>
       </c>
     </row>
     <row r="25">
@@ -881,10 +881,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>57.7</v>
+        <v>0.577</v>
       </c>
       <c r="D25" t="n">
-        <v>21.7</v>
+        <v>0.2171428571428571</v>
       </c>
     </row>
     <row r="26">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>38.7</v>
+        <v>0.387</v>
       </c>
       <c r="D26" t="n">
-        <v>23.4</v>
+        <v>0.2342857142857143</v>
       </c>
     </row>
     <row r="27">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>39.4</v>
+        <v>0.394</v>
       </c>
       <c r="D27" t="n">
-        <v>25.7</v>
+        <v>0.2571428571428571</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>63.3</v>
+        <v>0.633</v>
       </c>
       <c r="D28" t="n">
-        <v>27.4</v>
+        <v>0.2742857142857143</v>
       </c>
     </row>
     <row r="29">
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>55.3</v>
+        <v>0.553</v>
       </c>
       <c r="D29" t="n">
-        <v>28.6</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="30">
@@ -971,10 +971,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>48.8</v>
+        <v>0.488</v>
       </c>
       <c r="D30" t="n">
-        <v>30.9</v>
+        <v>0.3085714285714286</v>
       </c>
     </row>
     <row r="31">
@@ -989,10 +989,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>47.9</v>
+        <v>0.479</v>
       </c>
       <c r="D31" t="n">
-        <v>41.1</v>
+        <v>0.4114285714285714</v>
       </c>
     </row>
     <row r="32">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>34.5</v>
+        <v>0.345</v>
       </c>
       <c r="D32" t="n">
-        <v>44</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="33">
@@ -1025,10 +1025,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>36.5</v>
+        <v>0.365</v>
       </c>
       <c r="D33" t="n">
-        <v>49.1</v>
+        <v>0.4914285714285714</v>
       </c>
     </row>
     <row r="34">
@@ -1043,10 +1043,10 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>54.7</v>
+        <v>0.547</v>
       </c>
       <c r="D34" t="n">
-        <v>51.4</v>
+        <v>0.5142857142857142</v>
       </c>
     </row>
   </sheetData>
